--- a/data/groupes.xlsx
+++ b/data/groupes.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="253">
   <si>
     <t xml:space="preserve">SIBUET</t>
   </si>
@@ -1689,6 +1690,249 @@
       </rPr>
       <t xml:space="preserve"> (PP)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Charenton (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netter (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picpus (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuilly (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sibuet (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soult (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincennes (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellac Denis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludoski Joël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corial Fabrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthoney Florian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denoux Lionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergère Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Carre Jean-Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendrey Aurélien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messomo Alexandre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décarroux Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumis Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaysena Pierre (Sane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desnos Jean-Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz Clément</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyal David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitanga Mélanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffy Odile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiougou Gitane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copîlova Elena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellac Chrystel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col Catherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergère Véronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasia Lydienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dambert Lindsay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Estelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuda Abel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Sarai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalhoub Aïcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuda Mireille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denoux Caroline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Yohann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalhoub Kemil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Cunha Chantal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favrel Corinne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corial Brice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maury Monique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalla Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décarroux Fanny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebec Germaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mossoua Ossibi Armel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacq Mélanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duval Héléna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Rébecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazon Marie-Claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kermel Soline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renard Christine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orloc Gérard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messomo Chloé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrignac Solange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Elena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Paulette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludoski Annie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbiakop Marcelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahieux Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomes Jöel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafelana Anaëlle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salagnard Annie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladjyn Mikaella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrier Christiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Galleu Roberte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothin Jean-Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogues Céline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiétiébou Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothin Marcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaysena Lucille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massako Thérèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valier Tracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagrencu Ina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Ebru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petitpierre Aurélie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz Emeline</t>
   </si>
 </sst>
 </file>
@@ -2074,204 +2318,208 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2526,629 +2774,1295 @@
   </sheetPr>
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.22"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="31" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="24" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="24" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="39" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="40" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="41" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="42"/>
+      <c r="I24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="45"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="46" t="n">
+      <c r="B26" s="47" t="n">
         <v>21</v>
       </c>
-      <c r="C26" s="47" t="n">
+      <c r="C26" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="48" t="n">
+      <c r="D26" s="49" t="n">
         <v>19</v>
       </c>
-      <c r="E26" s="47" t="n">
+      <c r="E26" s="48" t="n">
         <v>21</v>
       </c>
-      <c r="F26" s="48" t="n">
+      <c r="F26" s="49" t="n">
         <v>21</v>
       </c>
-      <c r="G26" s="46" t="n">
+      <c r="G26" s="47" t="n">
         <v>21</v>
       </c>
-      <c r="H26" s="46" t="n">
+      <c r="H26" s="47" t="n">
         <v>21</v>
       </c>
-      <c r="I26" s="49" t="n">
+      <c r="I26" s="50" t="n">
         <v>20</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:I30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.22"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="41"/>
+      <c r="C24" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="41"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="41"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="41"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="24"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/groupes.xlsx
+++ b/data/groupes.xlsx
@@ -1692,28 +1692,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Charenton (20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nation (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netter (19)</t>
+    <t xml:space="preserve">Charenton (16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netter (22)</t>
   </si>
   <si>
     <t xml:space="preserve">Picpus (21)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reuilly (21)</t>
+    <t xml:space="preserve">Reuilly (22)</t>
   </si>
   <si>
     <t xml:space="preserve">Sibuet (21)</t>
   </si>
   <si>
-    <t xml:space="preserve">Soult (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincennes (20)</t>
+    <t xml:space="preserve">Soult (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincennes (21)</t>
   </si>
   <si>
     <t xml:space="preserve">Cellac Denis</t>
@@ -1740,199 +1740,199 @@
     <t xml:space="preserve">Gendrey Aurélien</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyal David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décarroux Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumis Xavier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaysena Pierre (Sane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desnos Jean-Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz Clément</t>
+  </si>
+  <si>
     <t xml:space="preserve">Messomo Alexandre</t>
   </si>
   <si>
-    <t xml:space="preserve">Décarroux Valentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aumis Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xaysena Pierre (Sane)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roussel Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desnos Jean-Pierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaz Clément</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyal David</t>
+    <t xml:space="preserve">Favrel Corinne</t>
   </si>
   <si>
     <t xml:space="preserve">Bitanga Mélanie</t>
   </si>
   <si>
+    <t xml:space="preserve">Bergère Véronique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copîlova Elena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellac Chrystel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corial Brice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coffy Odile</t>
   </si>
   <si>
+    <t xml:space="preserve">Beynier Sarai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col Catherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denoux Caroline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Yohann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dambert Lindsay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuda Abel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasia Lydienne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Estelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuda Mireille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Rébecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kermel Soline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Cunha Chantal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalla Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazon Marie-Claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalhoub Aïcha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guiougou Gitane</t>
   </si>
   <si>
-    <t xml:space="preserve">Copîlova Elena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellac Chrystel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col Catherine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergère Véronique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasia Lydienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dambert Lindsay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Estelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuda Abel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Sarai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalhoub Aïcha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuda Mireille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denoux Caroline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Yohann</t>
+    <t xml:space="preserve">Mahieux Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maury Monique</t>
   </si>
   <si>
     <t xml:space="preserve">Chalhoub Kemil</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Cunha Chantal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favrel Corinne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corial Brice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maury Monique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalla Marie</t>
+    <t xml:space="preserve">Messomo Chloé</t>
   </si>
   <si>
     <t xml:space="preserve">Décarroux Fanny</t>
   </si>
   <si>
+    <t xml:space="preserve">Duval Héléna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orloc Gérard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mossoua Ossibi Armel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Paulette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladjyn Mikaella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renard Christine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacq Mélanie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lebec Germaine</t>
   </si>
   <si>
-    <t xml:space="preserve">Mossoua Ossibi Armel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacq Mélanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duval Héléna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Rébecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazon Marie-Claude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kermel Soline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renard Christine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orloc Gérard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messomo Chloé</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scrignac Solange</t>
   </si>
   <si>
+    <t xml:space="preserve">Nogues Céline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafelana Anaëlle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomes Jöel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicolas Elena</t>
   </si>
   <si>
-    <t xml:space="preserve">Roger Paulette</t>
+    <t xml:space="preserve">Pothin Jean-Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Galleu Roberte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrier Christiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothin Marcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salagnard Annie</t>
   </si>
   <si>
     <t xml:space="preserve">Ludoski Annie</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaz Emeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaysena Lucille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Ebru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massako Thérèse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mbiakop Marcelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Mahieux Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomes Jöel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafelana Anaëlle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salagnard Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladjyn Mikaella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verrier Christiane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Galleu Roberte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pothin Jean-Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nogues Céline</t>
+    <t xml:space="preserve">Zagrencu Ina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valier Tracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petitpierre Aurélie</t>
   </si>
   <si>
     <t xml:space="preserve">Tiétiébou Florence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pothin Marcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xaysena Lucille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massako Thérèse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valier Tracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zagrencu Ina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roussel Ebru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petitpierre Aurélie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaz Emeline</t>
   </si>
 </sst>
 </file>
@@ -3414,10 +3414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3495,7 +3495,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3516,31 +3516,31 @@
       <c r="H5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>39</v>
@@ -3548,25 +3548,25 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>197</v>
-      </c>
       <c r="G7" s="23" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>199</v>
@@ -3577,22 +3577,22 @@
         <v>200</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>151</v>
@@ -3603,395 +3603,389 @@
         <v>204</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="G9" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="H9" s="21" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>213</v>
-      </c>
       <c r="F11" s="21" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="24" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="33" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21" t="s">
-        <v>81</v>
+      <c r="B15" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>223</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="21" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="G16" s="23" t="s">
         <v>225</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="21" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>112</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>119</v>
+        <v>142</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="21" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>170</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>236</v>
       </c>
       <c r="H19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21" t="s">
-        <v>137</v>
-      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="23" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>239</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21" t="s">
-        <v>145</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="24" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>240</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>241</v>
+        <v>106</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21" t="s">
-        <v>153</v>
-      </c>
+      <c r="B22" s="21"/>
       <c r="C22" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>141</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>152</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21" t="s">
-        <v>161</v>
-      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="H23" s="37" t="s">
-        <v>248</v>
-      </c>
+      <c r="H23" s="37"/>
       <c r="I23" s="40" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="41"/>
       <c r="C24" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>153</v>
+      </c>
       <c r="E24" s="42" t="s">
         <v>249</v>
       </c>
@@ -4001,19 +3995,25 @@
       <c r="G24" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="24"/>
+      <c r="I24" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="I24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="41"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>161</v>
+      </c>
       <c r="E25" s="42"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
+      <c r="F25" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4021,7 +4021,7 @@
       <c r="C26" s="37"/>
       <c r="D26" s="36"/>
       <c r="E26" s="42"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="21"/>
       <c r="H26" s="24"/>
       <c r="I26" s="43"/>
@@ -4047,22 +4047,62 @@
       <c r="I28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="24"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="46"/>
-    </row>
-    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="50"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="43"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="41"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="43"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="41"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="43"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="41"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="24"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/groupes.xlsx
+++ b/data/groupes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="254">
   <si>
     <t xml:space="preserve">SIBUET</t>
   </si>
@@ -1692,247 +1692,250 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Charenton (16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nation (22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netter (22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picpus (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reuilly (22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sibuet (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soult (19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincennes (21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellac Denis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludoski Joël</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corial Fabrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthoney Florian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denoux Lionel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergère Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Carre Jean-Philippe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gendrey Aurélien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyal David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décarroux Valentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aumis Xavier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xaysena Pierre (Sane)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roussel Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desnos Jean-Pierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaz Clément</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messomo Alexandre</t>
+    <t xml:space="preserve">Charenton (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nation (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bercy (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picpus (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuilly (19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dugommier (22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soult (21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincennes (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellac Denis (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendrey Aurélien (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corial Fabrice (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthoney Florian (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denoux Lionel (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergère Christian (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Carre Jean-Philippe (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludoski Joël (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyal David (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décarroux Valentin (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumis Xavier (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xaysena Pierre (Sane) (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Samuel (A), (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz Clément (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desnos Jean-Pierre (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messomo Alexandre (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergère Véronique (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corial Brice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Estelle (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitanga Mélanie (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalhoub Aïcha</t>
   </si>
   <si>
     <t xml:space="preserve">Favrel Corinne</t>
   </si>
   <si>
-    <t xml:space="preserve">Bitanga Mélanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergère Véronique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copîlova Elena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellac Chrystel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corial Brice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffy Odile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Sarai</t>
+    <t xml:space="preserve">Da Cunha Chantal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copîlova Elena (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dambert Lindsay (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalhoub Kemil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Sarai (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Rébecca (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellac Chrystel (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denoux Caroline (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beynier Yohann (AM), (PP)</t>
   </si>
   <si>
     <t xml:space="preserve">Col Catherine</t>
   </si>
   <si>
-    <t xml:space="preserve">Denoux Caroline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Yohann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dambert Lindsay</t>
+    <t xml:space="preserve">Décarroux Fanny (PP)</t>
   </si>
   <si>
     <t xml:space="preserve">Chuda Abel</t>
   </si>
   <si>
-    <t xml:space="preserve">Kasia Lydienne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beynier Estelle</t>
+    <t xml:space="preserve">Kalla Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludoski Annie (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazon Marie-Claude</t>
   </si>
   <si>
     <t xml:space="preserve">Chuda Mireille</t>
   </si>
   <si>
-    <t xml:space="preserve">Joseph Rébecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kermel Soline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da Cunha Chantal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalla Marie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gazon Marie-Claude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Olivier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chalhoub Aïcha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiougou Gitane</t>
+    <t xml:space="preserve">Coffy Odile (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacq Mélanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiougou Gitane (PP)</t>
   </si>
   <si>
     <t xml:space="preserve">Mahieux Olivier</t>
   </si>
   <si>
+    <t xml:space="preserve">Duval Héléna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maury Monique</t>
   </si>
   <si>
-    <t xml:space="preserve">Chalhoub Kemil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messomo Chloé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décarroux Fanny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duval Héléna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orloc Gérard</t>
+    <t xml:space="preserve">Mbiakop Marcelle (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messomo Chloé (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasia Lydienne (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladjyn Mikaella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomes Jöel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orloc Gérard (AM)</t>
   </si>
   <si>
     <t xml:space="preserve">Mossoua Ossibi Armel</t>
   </si>
   <si>
-    <t xml:space="preserve">Roger Paulette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladjyn Mikaella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renard Christine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacq Mélanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebec Germaine</t>
+    <t xml:space="preserve">Kermel Soline (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebec Germaine (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massako Thérèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafelana Anaëlle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salagnard Annie (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas Elena (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Olivier (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothin Jean-Paul (AM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Galleu Roberte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petitpierre Aurélie (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renard Christine (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pothin Marcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiétiébou Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roussel Ebru (PP)</t>
   </si>
   <si>
     <t xml:space="preserve">Scrignac Solange</t>
   </si>
   <si>
+    <t xml:space="preserve">Xaysena Lucille (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roger Paulette (PP)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nogues Céline</t>
   </si>
   <si>
-    <t xml:space="preserve">Rafelana Anaëlle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomes Jöel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas Elena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pothin Jean-Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Galleu Roberte</t>
+    <t xml:space="preserve">Valier Tracy (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagrencu Ina (PP)</t>
   </si>
   <si>
     <t xml:space="preserve">Verrier Christiane</t>
   </si>
   <si>
-    <t xml:space="preserve">Pothin Marcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salagnard Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ludoski Annie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaz Emeline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xaysena Lucille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roussel Ebru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massako Thérèse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbiakop Marcelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zagrencu Ina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valier Tracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petitpierre Aurélie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiétiébou Florence</t>
+    <t xml:space="preserve">Timboursaint Sherly (PP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaz Emeline (PP)</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1945,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,6 +2008,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2318,7 +2328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2521,6 +2531,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2774,8 +2788,8 @@
   </sheetPr>
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3416,20 +3430,20 @@
   </sheetPr>
   <dimension ref="B2:I34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.87"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3486,7 @@
       <c r="B4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="51" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -3521,43 +3535,43 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>39</v>
+      <c r="H6" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>49</v>
@@ -3566,50 +3580,50 @@
         <v>198</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="G8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="C9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>205</v>
@@ -3617,482 +3631,486 @@
       <c r="G9" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="21" t="s">
+      <c r="I12" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>132</v>
+      <c r="B13" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>221</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="B14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="F15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>63</v>
+      <c r="F16" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>107</v>
+      <c r="B17" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>139</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21" t="s">
+      <c r="C23" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="24" t="s">
+      <c r="C24" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="41"/>
-      <c r="C24" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="21" t="s">
+      <c r="H24" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="41"/>
-      <c r="C25" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23" t="s">
+        <v>253</v>
+      </c>
       <c r="H25" s="24"/>
-      <c r="I25" s="43"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="41"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="43"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="41"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="43"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="41"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="43"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="41"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="43"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="41"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="43"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="41"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="43"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="41"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="43"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="24"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="46"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="47"/>
